--- a/biology/Zoologie/Adetomyrma/Adetomyrma.xlsx
+++ b/biology/Zoologie/Adetomyrma/Adetomyrma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adetomyrma est un genre de fourmis de la famille des Formicidae nommé « Fourmis Dracula ». Son espèce type, Adetomyrma venatrix, est considérée par l'UICN[1] comme en danger critique d'extinction. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adetomyrma est un genre de fourmis de la famille des Formicidae nommé « Fourmis Dracula ». Son espèce type, Adetomyrma venatrix, est considérée par l'UICN comme en danger critique d'extinction. 
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les ouvrières de l'espèce-type présentent des particularités morphologiques importantes : absence de pétiole en vue dorsale, un abdomen élargit dans son arrière, absence d'yeux et présence d'un dard plus grand que tous ceux des autres espèces de fourmis connues[2].
-Ces espèces sont nommées « Fourmis Dracula » en raison de leur type d'alimentation. En effet, les adultes sont incapables de se nourrir seuls : après avoir approvisionné leurs larves en protéine, ils percent leur tégument pour en extraire l'hémolymphe[2],[3].
-L'ensemble des espèces de ce genre est endémique des forêts tropicales sèches de l'île de Madagascar[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les ouvrières de l'espèce-type présentent des particularités morphologiques importantes : absence de pétiole en vue dorsale, un abdomen élargit dans son arrière, absence d'yeux et présence d'un dard plus grand que tous ceux des autres espèces de fourmis connues.
+Ces espèces sont nommées « Fourmis Dracula » en raison de leur type d'alimentation. En effet, les adultes sont incapables de se nourrir seuls : après avoir approvisionné leurs larves en protéine, ils percent leur tégument pour en extraire l'hémolymphe,.
+L'ensemble des espèces de ce genre est endémique des forêts tropicales sèches de l'île de Madagascar,.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Adetomyrma est décrite par Ward en 1994 à partir d'ouvrières d'Adetomyrma venatrix. Il les place au sein de la tribu des Amblyoponini de la famille des Ponerinae. Cette tribu se élevé au rang de la sous-famille Amblyoponinae, par Bolton en 2003[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adetomyrma est décrite par Ward en 1994 à partir d'ouvrières d'Adetomyrma venatrix. Il les place au sein de la tribu des Amblyoponini de la famille des Ponerinae. Cette tribu se élevé au rang de la sous-famille Amblyoponinae, par Bolton en 2003,.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Ensemble des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Yshimura et Fisher (2012)[3] et AntWeb[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Yshimura et Fisher (2012) et AntWeb :
 Adetomyrma aureocuprea Yoshimura &amp; Fisher, 2012
 Adetomyrma bressleri Yoshimura &amp; Fisher, 2012
 Adetomyrma caputleae Yoshimura &amp; Fisher, 2012
